--- a/wolf/Excel/Tips_提示表.xlsx
+++ b/wolf/Excel/Tips_提示表.xlsx
@@ -43,50 +43,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,16 +196,16 @@
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="4" fontId="7" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
@@ -535,29 +535,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="56"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="59"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="37"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" s="1" t="str">
         <v>Int</v>
       </c>
@@ -589,7 +589,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
         <v>TipID</v>
       </c>
@@ -621,7 +621,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="3">
+    <row customHeight="true" ht="23" r="3">
       <c r="A3" s="1" t="str">
         <v>提示序号</v>
       </c>
@@ -653,7 +653,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="4">
+    <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="str"/>
@@ -677,7 +677,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="5">
+    <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1">
         <v>10001</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1">
         <v>10002</v>
       </c>
@@ -737,7 +737,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="7">
+    <row customHeight="true" ht="23" r="7">
       <c r="A7" s="1">
         <v>10003</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="8">
+    <row customHeight="true" ht="23" r="8">
       <c r="A8" s="1">
         <v>10004</v>
       </c>
@@ -797,7 +797,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="9">
+    <row customHeight="true" ht="23" r="9">
       <c r="A9" s="1">
         <v>10005</v>
       </c>
@@ -827,7 +827,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row customHeight="true" ht="23" r="10">
       <c r="A10" s="1">
         <v>10006</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
+    <row customHeight="true" ht="23" r="11">
       <c r="A11" s="1">
         <v>10007</v>
       </c>
@@ -887,7 +887,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="12">
+    <row customHeight="true" ht="23" r="12">
       <c r="A12" s="1">
         <v>10008</v>
       </c>
@@ -917,7 +917,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
+    <row customHeight="true" ht="23" r="13">
       <c r="A13" s="1">
         <v>10009</v>
       </c>
@@ -925,7 +925,7 @@
         <v>局内其他人死亡</v>
       </c>
       <c r="C13" s="1" t="str">
-        <v>有人死掉了！</v>
+        <v>有人被淘汰掉了！</v>
       </c>
       <c r="D13" s="1" t="str">
         <v>Tips_Content_10009</v>
@@ -947,7 +947,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="14">
+    <row customHeight="true" ht="23" r="14">
       <c r="A14" s="1">
         <v>10010</v>
       </c>
@@ -977,68 +977,68 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="15">
-      <c r="A15" s="4">
+    <row customHeight="true" ht="23" r="15">
+      <c r="A15" s="3">
         <v>10011</v>
       </c>
-      <c r="B15" s="4" t="str">
+      <c r="B15" s="3" t="str">
         <v>能力商店</v>
       </c>
-      <c r="C15" s="7" t="str">
+      <c r="C15" s="4" t="str">
         <v>购买成功</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="3" t="str">
         <v>Tips_Content_10011</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-    </row>
-    <row customHeight="true" ht="21" r="16">
-      <c r="A16" s="4">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="16">
+      <c r="A16" s="3">
         <v>10012</v>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" s="3" t="str">
         <v>能力商店</v>
       </c>
-      <c r="C16" s="7" t="str">
+      <c r="C16" s="4" t="str">
         <v>货币不足，再攒攒吧~</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="D16" s="3" t="str">
         <v>Tips_Content_10012</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-    </row>
-    <row customHeight="true" ht="21" r="17">
-      <c r="A17" s="4">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="17">
+      <c r="A17" s="3">
         <v>10013</v>
       </c>
       <c r="B17" s="1" t="str">
@@ -1047,7 +1047,7 @@
       <c r="C17" s="1" t="str">
         <v>有玩家进入场景失败，对局将重新开始</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D17" s="3" t="str">
         <v>Tips_Content_10013</v>
       </c>
       <c r="E17" s="1"/>
@@ -1067,7 +1067,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="18">
+    <row customHeight="true" ht="23" r="18">
       <c r="A18" s="1">
         <v>20001</v>
       </c>
@@ -1097,17 +1097,17 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="19">
-      <c r="A19" s="5">
+    <row customHeight="true" ht="23" r="19">
+      <c r="A19" s="6">
         <v>20002</v>
       </c>
-      <c r="B19" s="5" t="str">
+      <c r="B19" s="6" t="str">
         <v>商店</v>
       </c>
-      <c r="C19" s="6" t="str">
+      <c r="C19" s="5" t="str">
         <v>货币不足</v>
       </c>
-      <c r="D19" s="5" t="str">
+      <c r="D19" s="6" t="str">
         <v>Tips_Content_20002</v>
       </c>
       <c r="E19" s="1"/>
@@ -1127,7 +1127,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row customHeight="true" ht="23" r="20">
       <c r="A20" s="1">
         <v>20003</v>
       </c>
@@ -1157,7 +1157,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="21">
+    <row customHeight="true" ht="23" r="21">
       <c r="A21" s="1">
         <v>20004</v>
       </c>
@@ -1187,7 +1187,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="22">
+    <row customHeight="true" ht="23" r="22">
       <c r="A22" s="1">
         <v>20005</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="23">
+    <row customHeight="true" ht="23" r="23">
       <c r="A23" s="1">
         <v>20006</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="24">
+    <row customHeight="true" ht="23" r="24">
       <c r="A24" s="1">
         <v>20007</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="25">
+    <row customHeight="true" ht="23" r="25">
       <c r="A25" s="1">
         <v>20008</v>
       </c>
@@ -1307,98 +1307,98 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="26">
-      <c r="A26" s="4">
+    <row customHeight="true" ht="23" r="26">
+      <c r="A26" s="3">
         <v>20009</v>
       </c>
-      <c r="B26" s="3" t="str">
+      <c r="B26" s="7" t="str">
         <v>死亡提示</v>
       </c>
-      <c r="C26" s="3" t="str">
+      <c r="C26" s="7" t="str">
         <v>凶手淘汰了你</v>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="D26" s="3" t="str">
         <v>Tips_Content_20009</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-    </row>
-    <row customHeight="true" ht="21" r="27">
-      <c r="A27" s="4">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="27">
+      <c r="A27" s="3">
         <v>20010</v>
       </c>
-      <c r="B27" s="3" t="str">
+      <c r="B27" s="7" t="str">
         <v>死亡提示</v>
       </c>
-      <c r="C27" s="3" t="str">
+      <c r="C27" s="7" t="str">
         <v>目标错误，你被淘汰了</v>
       </c>
-      <c r="D27" s="4" t="str">
+      <c r="D27" s="3" t="str">
         <v>Tips_Content_20010</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-    </row>
-    <row customHeight="true" ht="21" r="28">
-      <c r="A28" s="4">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="28">
+      <c r="A28" s="3">
         <v>20011</v>
       </c>
-      <c r="B28" s="3" t="str">
+      <c r="B28" s="7" t="str">
         <v>死亡提示</v>
       </c>
-      <c r="C28" s="3" t="str">
+      <c r="C28" s="7" t="str">
         <v>已被正义的警探消灭</v>
       </c>
-      <c r="D28" s="4" t="str">
+      <c r="D28" s="3" t="str">
         <v>Tips_Content_20011</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-    </row>
-    <row customHeight="true" ht="21" r="29">
-      <c r="A29" s="4">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="29">
+      <c r="A29" s="3">
         <v>20012</v>
       </c>
       <c r="B29" s="1" t="str">
@@ -1407,7 +1407,7 @@
       <c r="C29" s="2" t="str">
         <v>兑换成功</v>
       </c>
-      <c r="D29" s="4" t="str">
+      <c r="D29" s="3" t="str">
         <v>Tips_Content_20012</v>
       </c>
       <c r="E29" s="1"/>
@@ -1427,8 +1427,8 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="30">
-      <c r="A30" s="4">
+    <row customHeight="true" ht="23" r="30">
+      <c r="A30" s="3">
         <v>20013</v>
       </c>
       <c r="B30" s="1" t="str">
@@ -1437,7 +1437,7 @@
       <c r="C30" s="2" t="str">
         <v>兑换失败</v>
       </c>
-      <c r="D30" s="4" t="str">
+      <c r="D30" s="3" t="str">
         <v>Tips_Content_20013</v>
       </c>
       <c r="E30" s="1"/>
@@ -1457,8 +1457,8 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="31">
-      <c r="A31" s="4">
+    <row customHeight="true" ht="23" r="31">
+      <c r="A31" s="3">
         <v>20014</v>
       </c>
       <c r="B31" s="1" t="str">
@@ -1467,7 +1467,7 @@
       <c r="C31" s="2" t="str">
         <v>恭喜激活会员特权</v>
       </c>
-      <c r="D31" s="4" t="str">
+      <c r="D31" s="3" t="str">
         <v>Tips_Content_20014</v>
       </c>
       <c r="E31" s="1"/>
@@ -1487,8 +1487,8 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="32">
-      <c r="A32" s="4">
+    <row customHeight="true" ht="23" r="32">
+      <c r="A32" s="3">
         <v>20015</v>
       </c>
       <c r="B32" s="1" t="str">
@@ -1497,7 +1497,7 @@
       <c r="C32" s="2" t="str">
         <v>恭喜激活超级特权</v>
       </c>
-      <c r="D32" s="4" t="str">
+      <c r="D32" s="3" t="str">
         <v>Tips_Content_20015</v>
       </c>
       <c r="E32" s="1"/>
@@ -1517,8 +1517,8 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="33">
-      <c r="A33" s="4">
+    <row customHeight="true" ht="23" r="33">
+      <c r="A33" s="3">
         <v>20016</v>
       </c>
       <c r="B33" s="1" t="str">
@@ -1527,7 +1527,7 @@
       <c r="C33" s="2" t="str">
         <v>会员特权已到期失效</v>
       </c>
-      <c r="D33" s="4" t="str">
+      <c r="D33" s="3" t="str">
         <v>Tips_Content_20016</v>
       </c>
       <c r="E33" s="1"/>
@@ -1547,8 +1547,8 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="34">
-      <c r="A34" s="4">
+    <row customHeight="true" ht="23" r="34">
+      <c r="A34" s="3">
         <v>20017</v>
       </c>
       <c r="B34" s="1" t="str">
@@ -1557,7 +1557,7 @@
       <c r="C34" s="2" t="str">
         <v>超级特权已到期失效</v>
       </c>
-      <c r="D34" s="4" t="str">
+      <c r="D34" s="3" t="str">
         <v>Tips_Content_20017</v>
       </c>
       <c r="E34" s="1"/>
@@ -1577,8 +1577,8 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="35">
-      <c r="A35" s="4">
+    <row customHeight="true" ht="23" r="35">
+      <c r="A35" s="3">
         <v>20018</v>
       </c>
       <c r="B35" s="1" t="str">
@@ -1587,7 +1587,7 @@
       <c r="C35" s="2" t="str">
         <v>持有数量已经达到上限</v>
       </c>
-      <c r="D35" s="4" t="str">
+      <c r="D35" s="3" t="str">
         <v>Tips_Content_20018</v>
       </c>
       <c r="E35" s="1"/>
@@ -1607,8 +1607,8 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="36">
-      <c r="A36" s="4">
+    <row customHeight="true" ht="23" r="36">
+      <c r="A36" s="3">
         <v>20019</v>
       </c>
       <c r="B36" s="1" t="str">
@@ -1617,7 +1617,7 @@
       <c r="C36" s="2" t="str">
         <v>恭喜获得广告券*1</v>
       </c>
-      <c r="D36" s="4" t="str">
+      <c r="D36" s="3" t="str">
         <v>Tips_Content_20019</v>
       </c>
       <c r="E36" s="1"/>
@@ -1637,8 +1637,8 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="37">
-      <c r="A37" s="4">
+    <row customHeight="true" ht="23" r="37">
+      <c r="A37" s="3">
         <v>20020</v>
       </c>
       <c r="B37" s="1" t="str">
@@ -1647,7 +1647,7 @@
       <c r="C37" s="2" t="str">
         <v>金钥匙数量不足</v>
       </c>
-      <c r="D37" s="4" t="str">
+      <c r="D37" s="3" t="str">
         <v>Tips_Content_20020</v>
       </c>
       <c r="E37" s="1"/>
@@ -1667,8 +1667,8 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="38">
-      <c r="A38" s="4">
+    <row customHeight="true" ht="23" r="38">
+      <c r="A38" s="3">
         <v>20021</v>
       </c>
       <c r="B38" s="1" t="str">
@@ -1677,7 +1677,7 @@
       <c r="C38" s="2" t="str">
         <v>这个版本不支持开通大会员</v>
       </c>
-      <c r="D38" s="4" t="str">
+      <c r="D38" s="3" t="str">
         <v>Tips_Content_20021</v>
       </c>
       <c r="E38" s="1"/>
@@ -1697,7 +1697,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="39">
+    <row customHeight="true" ht="23" r="39">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="str"/>
@@ -1719,7 +1719,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="40">
+    <row customHeight="true" ht="23" r="40">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="str"/>
@@ -1741,7 +1741,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="41">
+    <row customHeight="true" ht="23" r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="str"/>
@@ -1763,7 +1763,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="42">
+    <row customHeight="true" ht="23" r="42">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="str"/>
@@ -1785,7 +1785,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="43">
+    <row customHeight="true" ht="23" r="43">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="str"/>
@@ -1807,7 +1807,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="44">
+    <row customHeight="true" ht="23" r="44">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="str"/>
@@ -1829,7 +1829,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="45">
+    <row customHeight="true" ht="23" r="45">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="str"/>
@@ -1851,7 +1851,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="46">
+    <row customHeight="true" ht="23" r="46">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="str"/>
@@ -1873,7 +1873,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="47">
+    <row customHeight="true" ht="23" r="47">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="str"/>
@@ -1895,7 +1895,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="48">
+    <row customHeight="true" ht="23" r="48">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2" t="str"/>
@@ -1917,7 +1917,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="49">
+    <row customHeight="true" ht="23" r="49">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="str"/>
@@ -1939,7 +1939,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="50">
+    <row customHeight="true" ht="23" r="50">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2" t="str"/>
@@ -1961,7 +1961,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="51">
+    <row customHeight="true" ht="23" r="51">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="str"/>
@@ -1983,7 +1983,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="52">
+    <row customHeight="true" ht="23" r="52">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="str"/>
@@ -2005,7 +2005,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="53">
+    <row customHeight="true" ht="23" r="53">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="str"/>
@@ -2027,7 +2027,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="54">
+    <row customHeight="true" ht="23" r="54">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="str"/>
@@ -2049,7 +2049,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="55">
+    <row customHeight="true" ht="23" r="55">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="str"/>
@@ -2071,7 +2071,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="56">
+    <row customHeight="true" ht="23" r="56">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="str"/>
@@ -2093,7 +2093,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="57">
+    <row customHeight="true" ht="23" r="57">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="str"/>
@@ -2115,7 +2115,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="58">
+    <row customHeight="true" ht="23" r="58">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="str"/>
@@ -2137,7 +2137,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="59">
+    <row customHeight="true" ht="23" r="59">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="str"/>
@@ -2159,7 +2159,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="60">
+    <row customHeight="true" ht="23" r="60">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="str"/>
@@ -2181,7 +2181,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="61">
+    <row customHeight="true" ht="23" r="61">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="str"/>
@@ -2203,7 +2203,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="62">
+    <row customHeight="true" ht="23" r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="str"/>
@@ -2225,7 +2225,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="63">
+    <row customHeight="true" ht="23" r="63">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2" t="str"/>
@@ -2247,7 +2247,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="64">
+    <row customHeight="true" ht="23" r="64">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2" t="str"/>
@@ -2269,7 +2269,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="65">
+    <row customHeight="true" ht="23" r="65">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="2" t="str"/>
@@ -2291,7 +2291,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="66">
+    <row customHeight="true" ht="23" r="66">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2" t="str"/>
@@ -2313,7 +2313,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="67">
+    <row customHeight="true" ht="23" r="67">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="2" t="str"/>
@@ -2335,7 +2335,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="68">
+    <row customHeight="true" ht="23" r="68">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2" t="str"/>
@@ -2357,7 +2357,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="69">
+    <row customHeight="true" ht="23" r="69">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2" t="str"/>
@@ -2379,7 +2379,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="70">
+    <row customHeight="true" ht="23" r="70">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2" t="str"/>
@@ -2401,7 +2401,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="71">
+    <row customHeight="true" ht="23" r="71">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2" t="str"/>
@@ -2423,7 +2423,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="72">
+    <row customHeight="true" ht="23" r="72">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2" t="str"/>
@@ -2445,7 +2445,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="73">
+    <row customHeight="true" ht="23" r="73">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="str"/>
@@ -2467,7 +2467,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="74">
+    <row customHeight="true" ht="23" r="74">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2" t="str"/>
@@ -2489,7 +2489,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="75">
+    <row customHeight="true" ht="23" r="75">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2" t="str"/>
@@ -2511,7 +2511,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="76">
+    <row customHeight="true" ht="23" r="76">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2" t="str"/>
@@ -2533,7 +2533,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="77">
+    <row customHeight="true" ht="23" r="77">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2" t="str"/>
@@ -2555,7 +2555,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="78">
+    <row customHeight="true" ht="23" r="78">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2" t="str"/>
@@ -2577,7 +2577,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="79">
+    <row customHeight="true" ht="23" r="79">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2" t="str"/>
@@ -2599,7 +2599,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="80">
+    <row customHeight="true" ht="23" r="80">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2" t="str"/>
@@ -2621,7 +2621,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="81">
+    <row customHeight="true" ht="23" r="81">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="2" t="str"/>
@@ -2643,7 +2643,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="82">
+    <row customHeight="true" ht="23" r="82">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2" t="str"/>
@@ -2665,7 +2665,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="83">
+    <row customHeight="true" ht="23" r="83">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2" t="str"/>
@@ -2687,7 +2687,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="84">
+    <row customHeight="true" ht="23" r="84">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2" t="str"/>
@@ -2709,7 +2709,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="85">
+    <row customHeight="true" ht="23" r="85">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="2" t="str"/>
@@ -2731,7 +2731,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="86">
+    <row customHeight="true" ht="23" r="86">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="2" t="str"/>
@@ -2753,7 +2753,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="87">
+    <row customHeight="true" ht="23" r="87">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2" t="str"/>
@@ -2775,7 +2775,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="88">
+    <row customHeight="true" ht="23" r="88">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2" t="str"/>
@@ -2797,7 +2797,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="89">
+    <row customHeight="true" ht="23" r="89">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2" t="str"/>
@@ -2819,7 +2819,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="90">
+    <row customHeight="true" ht="23" r="90">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2" t="str"/>
@@ -2841,7 +2841,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="91">
+    <row customHeight="true" ht="23" r="91">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2" t="str"/>
@@ -2863,7 +2863,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="92">
+    <row customHeight="true" ht="23" r="92">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2" t="str"/>
@@ -2885,7 +2885,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="93">
+    <row customHeight="true" ht="23" r="93">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2" t="str"/>
@@ -2907,7 +2907,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="94">
+    <row customHeight="true" ht="23" r="94">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2" t="str"/>
@@ -2929,7 +2929,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="95">
+    <row customHeight="true" ht="23" r="95">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2" t="str"/>
@@ -2951,7 +2951,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="96">
+    <row customHeight="true" ht="23" r="96">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2" t="str"/>
@@ -2973,7 +2973,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="97">
+    <row customHeight="true" ht="23" r="97">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2" t="str"/>
@@ -2995,7 +2995,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="98">
+    <row customHeight="true" ht="23" r="98">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2" t="str"/>
@@ -3017,7 +3017,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="99">
+    <row customHeight="true" ht="23" r="99">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2" t="str"/>
@@ -3039,7 +3039,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="100">
+    <row customHeight="true" ht="23" r="100">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="2" t="str"/>
@@ -3061,7 +3061,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="101">
+    <row customHeight="true" ht="23" r="101">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2" t="str"/>
@@ -3083,7 +3083,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="102">
+    <row customHeight="true" ht="23" r="102">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2" t="str"/>
@@ -3105,7 +3105,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="103">
+    <row customHeight="true" ht="23" r="103">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2" t="str"/>
@@ -3127,7 +3127,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="104">
+    <row customHeight="true" ht="23" r="104">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2" t="str"/>
@@ -3149,7 +3149,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="105">
+    <row customHeight="true" ht="23" r="105">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2" t="str"/>
@@ -3171,7 +3171,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="106">
+    <row customHeight="true" ht="23" r="106">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2" t="str"/>
@@ -3193,7 +3193,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="107">
+    <row customHeight="true" ht="23" r="107">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2" t="str"/>
@@ -3215,7 +3215,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="108">
+    <row customHeight="true" ht="23" r="108">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2" t="str"/>
@@ -3237,7 +3237,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="109">
+    <row customHeight="true" ht="23" r="109">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="2" t="str"/>
@@ -3259,7 +3259,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="110">
+    <row customHeight="true" ht="23" r="110">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2" t="str"/>
@@ -3281,7 +3281,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="111">
+    <row customHeight="true" ht="23" r="111">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2" t="str"/>
@@ -3303,7 +3303,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="112">
+    <row customHeight="true" ht="23" r="112">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2" t="str"/>
@@ -3325,7 +3325,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="113">
+    <row customHeight="true" ht="23" r="113">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="2" t="str"/>
@@ -3347,7 +3347,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="114">
+    <row customHeight="true" ht="23" r="114">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="2" t="str"/>
@@ -3369,7 +3369,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="115">
+    <row customHeight="true" ht="23" r="115">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="2" t="str"/>
@@ -3391,7 +3391,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="116">
+    <row customHeight="true" ht="23" r="116">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="2" t="str"/>
@@ -3413,7 +3413,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="117">
+    <row customHeight="true" ht="23" r="117">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="2" t="str"/>
@@ -3435,7 +3435,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="118">
+    <row customHeight="true" ht="23" r="118">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="2" t="str"/>
@@ -3457,7 +3457,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="119">
+    <row customHeight="true" ht="23" r="119">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2" t="str"/>
@@ -3479,7 +3479,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="120">
+    <row customHeight="true" ht="23" r="120">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="2" t="str"/>
@@ -3501,7 +3501,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="121">
+    <row customHeight="true" ht="23" r="121">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="2" t="str"/>
@@ -3523,7 +3523,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="122">
+    <row customHeight="true" ht="23" r="122">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="2" t="str"/>
@@ -3545,7 +3545,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="123">
+    <row customHeight="true" ht="23" r="123">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="2" t="str"/>
@@ -3567,7 +3567,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="124">
+    <row customHeight="true" ht="23" r="124">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="2" t="str"/>
@@ -3589,7 +3589,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="125">
+    <row customHeight="true" ht="23" r="125">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="2" t="str"/>
@@ -3611,7 +3611,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="126">
+    <row customHeight="true" ht="23" r="126">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="2" t="str"/>
@@ -3633,7 +3633,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="127">
+    <row customHeight="true" ht="23" r="127">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="2" t="str"/>
@@ -3655,7 +3655,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="128">
+    <row customHeight="true" ht="23" r="128">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="2" t="str"/>
@@ -3677,7 +3677,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="129">
+    <row customHeight="true" ht="23" r="129">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="2" t="str"/>
@@ -3699,7 +3699,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="130">
+    <row customHeight="true" ht="23" r="130">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="2" t="str"/>
@@ -3721,7 +3721,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="131">
+    <row customHeight="true" ht="23" r="131">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="2" t="str"/>
@@ -3743,7 +3743,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="132">
+    <row customHeight="true" ht="23" r="132">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="2" t="str"/>
@@ -3765,7 +3765,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="133">
+    <row customHeight="true" ht="23" r="133">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="2" t="str"/>
@@ -3787,7 +3787,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="134">
+    <row customHeight="true" ht="23" r="134">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="2" t="str"/>
@@ -3809,7 +3809,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="135">
+    <row customHeight="true" ht="23" r="135">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="2" t="str"/>
@@ -3831,7 +3831,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="136">
+    <row customHeight="true" ht="23" r="136">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="2" t="str"/>
@@ -3853,7 +3853,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="137">
+    <row customHeight="true" ht="23" r="137">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="2" t="str"/>
@@ -3875,7 +3875,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="138">
+    <row customHeight="true" ht="23" r="138">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="2" t="str"/>
@@ -3897,7 +3897,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="139">
+    <row customHeight="true" ht="23" r="139">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="2" t="str"/>
@@ -3919,7 +3919,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="140">
+    <row customHeight="true" ht="23" r="140">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="2" t="str"/>
@@ -3941,7 +3941,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="141">
+    <row customHeight="true" ht="23" r="141">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="2" t="str"/>
@@ -3963,7 +3963,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="142">
+    <row customHeight="true" ht="23" r="142">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="2" t="str"/>
@@ -3985,7 +3985,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="143">
+    <row customHeight="true" ht="23" r="143">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="2" t="str"/>
@@ -4007,7 +4007,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="144">
+    <row customHeight="true" ht="23" r="144">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="2" t="str"/>
@@ -4029,7 +4029,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="145">
+    <row customHeight="true" ht="23" r="145">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="2" t="str"/>
@@ -4051,7 +4051,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="146">
+    <row customHeight="true" ht="23" r="146">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="2" t="str"/>
@@ -4073,7 +4073,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="147">
+    <row customHeight="true" ht="23" r="147">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="2" t="str"/>
@@ -4095,7 +4095,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="148">
+    <row customHeight="true" ht="23" r="148">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="2" t="str"/>
@@ -4117,7 +4117,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="149">
+    <row customHeight="true" ht="23" r="149">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="2" t="str"/>
@@ -4139,7 +4139,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="150">
+    <row customHeight="true" ht="23" r="150">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="2" t="str"/>
@@ -4161,7 +4161,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="151">
+    <row customHeight="true" ht="23" r="151">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="2" t="str"/>
@@ -4183,7 +4183,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="152">
+    <row customHeight="true" ht="23" r="152">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="2" t="str"/>
@@ -4205,7 +4205,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="153">
+    <row customHeight="true" ht="23" r="153">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="2" t="str"/>
@@ -4227,7 +4227,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="154">
+    <row customHeight="true" ht="23" r="154">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="2" t="str"/>
@@ -4249,7 +4249,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="155">
+    <row customHeight="true" ht="23" r="155">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="2" t="str"/>
@@ -4271,7 +4271,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="156">
+    <row customHeight="true" ht="23" r="156">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="2" t="str"/>
@@ -4293,7 +4293,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="157">
+    <row customHeight="true" ht="23" r="157">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="2" t="str"/>
@@ -4315,7 +4315,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="158">
+    <row customHeight="true" ht="23" r="158">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="2" t="str"/>
@@ -4337,7 +4337,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="159">
+    <row customHeight="true" ht="23" r="159">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="2" t="str"/>
@@ -4359,7 +4359,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="160">
+    <row customHeight="true" ht="23" r="160">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="2" t="str"/>
@@ -4381,7 +4381,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="161">
+    <row customHeight="true" ht="23" r="161">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="2" t="str"/>
@@ -4403,7 +4403,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="162">
+    <row customHeight="true" ht="23" r="162">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="2" t="str"/>
@@ -4425,7 +4425,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="163">
+    <row customHeight="true" ht="23" r="163">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="2" t="str"/>
@@ -4447,7 +4447,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="164">
+    <row customHeight="true" ht="23" r="164">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="2" t="str"/>
@@ -4469,7 +4469,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="165">
+    <row customHeight="true" ht="23" r="165">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="2" t="str"/>
@@ -4491,7 +4491,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="166">
+    <row customHeight="true" ht="23" r="166">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="2" t="str"/>
@@ -4513,7 +4513,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="167">
+    <row customHeight="true" ht="23" r="167">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="2" t="str"/>
@@ -4535,7 +4535,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="168">
+    <row customHeight="true" ht="23" r="168">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="2" t="str"/>
@@ -4557,7 +4557,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="169">
+    <row customHeight="true" ht="23" r="169">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="2" t="str"/>
@@ -4579,7 +4579,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="170">
+    <row customHeight="true" ht="23" r="170">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="2" t="str"/>
@@ -4601,7 +4601,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="171">
+    <row customHeight="true" ht="23" r="171">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="2" t="str"/>
@@ -4623,7 +4623,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="172">
+    <row customHeight="true" ht="23" r="172">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="2" t="str"/>
@@ -4645,7 +4645,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="173">
+    <row customHeight="true" ht="23" r="173">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="2" t="str"/>
@@ -4667,7 +4667,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="174">
+    <row customHeight="true" ht="23" r="174">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="2" t="str"/>
@@ -4689,7 +4689,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="175">
+    <row customHeight="true" ht="23" r="175">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="2" t="str"/>
@@ -4711,7 +4711,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="176">
+    <row customHeight="true" ht="23" r="176">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="2" t="str"/>
@@ -4733,7 +4733,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="177">
+    <row customHeight="true" ht="23" r="177">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="2" t="str"/>
@@ -4755,7 +4755,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="178">
+    <row customHeight="true" ht="23" r="178">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="2" t="str"/>
@@ -4777,7 +4777,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="179">
+    <row customHeight="true" ht="23" r="179">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="2" t="str"/>
@@ -4799,7 +4799,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="180">
+    <row customHeight="true" ht="23" r="180">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="2" t="str"/>
@@ -4821,7 +4821,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="181">
+    <row customHeight="true" ht="23" r="181">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="2" t="str"/>
@@ -4843,7 +4843,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="182">
+    <row customHeight="true" ht="23" r="182">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="2" t="str"/>
@@ -4865,7 +4865,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="183">
+    <row customHeight="true" ht="23" r="183">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="2" t="str"/>
@@ -4887,7 +4887,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="184">
+    <row customHeight="true" ht="23" r="184">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="2" t="str"/>
@@ -4909,7 +4909,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="185">
+    <row customHeight="true" ht="23" r="185">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="2" t="str"/>
@@ -4931,7 +4931,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="186">
+    <row customHeight="true" ht="23" r="186">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="2" t="str"/>
@@ -4953,7 +4953,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="187">
+    <row customHeight="true" ht="23" r="187">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="2" t="str"/>
@@ -4975,7 +4975,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="188">
+    <row customHeight="true" ht="23" r="188">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="2" t="str"/>
@@ -4997,7 +4997,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="189">
+    <row customHeight="true" ht="23" r="189">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="2" t="str"/>
@@ -5019,7 +5019,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="190">
+    <row customHeight="true" ht="23" r="190">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="2" t="str"/>
@@ -5041,7 +5041,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="191">
+    <row customHeight="true" ht="23" r="191">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="2" t="str"/>
@@ -5063,7 +5063,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="192">
+    <row customHeight="true" ht="23" r="192">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="2" t="str"/>
@@ -5085,7 +5085,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="193">
+    <row customHeight="true" ht="23" r="193">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="2" t="str"/>
@@ -5107,7 +5107,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="194">
+    <row customHeight="true" ht="23" r="194">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="2" t="str"/>
@@ -5129,7 +5129,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="195">
+    <row customHeight="true" ht="23" r="195">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="2" t="str"/>
@@ -5151,7 +5151,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="196">
+    <row customHeight="true" ht="23" r="196">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="2" t="str"/>
@@ -5173,7 +5173,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="197">
+    <row customHeight="true" ht="23" r="197">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="2" t="str"/>
@@ -5195,7 +5195,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="198">
+    <row customHeight="true" ht="23" r="198">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="2" t="str"/>
@@ -5217,7 +5217,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="199">
+    <row customHeight="true" ht="23" r="199">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="2" t="str"/>
@@ -5239,7 +5239,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="200">
+    <row customHeight="true" ht="23" r="200">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="2" t="str"/>
@@ -5261,7 +5261,7 @@
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="201">
+    <row customHeight="true" ht="23" r="201">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="2" t="str"/>
@@ -5283,7 +5283,7 @@
       <c r="S201" s="1"/>
       <c r="T201" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="202">
+    <row customHeight="true" ht="23" r="202">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="2" t="str"/>
@@ -5305,7 +5305,7 @@
       <c r="S202" s="1"/>
       <c r="T202" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="203">
+    <row customHeight="true" ht="23" r="203">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="2" t="str"/>

--- a/wolf/Excel/Tips_提示表.xlsx
+++ b/wolf/Excel/Tips_提示表.xlsx
@@ -43,49 +43,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -193,18 +193,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="4" fontId="7" numFmtId="0" xfId="0">
@@ -535,42 +535,42 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="56"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="59"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="37"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="4" t="str">
         <v>String</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="4" t="str">
         <v>String</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="4" t="str">
         <v>String</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="4" t="str">
         <v>String</v>
       </c>
       <c r="F1" s="1"/>
@@ -589,20 +589,20 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
         <v>TipID</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="4" t="str">
         <v>Affiliation</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="4" t="str">
         <v>Remark</v>
       </c>
       <c r="D2" s="1" t="str">
         <v>Content</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="4" t="str">
         <v>Comment</v>
       </c>
       <c r="F2" s="1"/>
@@ -621,20 +621,20 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="3">
+    <row customHeight="true" ht="23" r="3">
       <c r="A3" s="1" t="str">
         <v>提示序号</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="4" t="str">
         <v>所属功能</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="4" t="str">
         <v>标注</v>
       </c>
       <c r="D3" s="1" t="str">
         <v>内容</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="4" t="str">
         <v>备注</v>
       </c>
       <c r="F3" s="1"/>
@@ -653,10 +653,10 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="4">
+    <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="2" t="str"/>
+      <c r="C4" s="4" t="str"/>
       <c r="D4" s="1" t="str">
         <v>Language</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="5">
+    <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1">
         <v>10001</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1">
         <v>10002</v>
       </c>
@@ -737,7 +737,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="7">
+    <row customHeight="true" ht="23" r="7">
       <c r="A7" s="1">
         <v>10003</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="8">
+    <row customHeight="true" ht="23" r="8">
       <c r="A8" s="1">
         <v>10004</v>
       </c>
@@ -797,7 +797,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="9">
+    <row customHeight="true" ht="23" r="9">
       <c r="A9" s="1">
         <v>10005</v>
       </c>
@@ -827,7 +827,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row customHeight="true" ht="23" r="10">
       <c r="A10" s="1">
         <v>10006</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
+    <row customHeight="true" ht="23" r="11">
       <c r="A11" s="1">
         <v>10007</v>
       </c>
@@ -887,7 +887,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="12">
+    <row customHeight="true" ht="23" r="12">
       <c r="A12" s="1">
         <v>10008</v>
       </c>
@@ -917,7 +917,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
+    <row customHeight="true" ht="23" r="13">
       <c r="A13" s="1">
         <v>10009</v>
       </c>
@@ -925,7 +925,7 @@
         <v>局内其他人死亡</v>
       </c>
       <c r="C13" s="1" t="str">
-        <v>有人死掉了！</v>
+        <v>有人倒下了！</v>
       </c>
       <c r="D13" s="1" t="str">
         <v>Tips_Content_10009</v>
@@ -947,7 +947,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="14">
+    <row customHeight="true" ht="23" r="14">
       <c r="A14" s="1">
         <v>10010</v>
       </c>
@@ -977,68 +977,68 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="15">
-      <c r="A15" s="4">
+    <row customHeight="true" ht="23" r="15">
+      <c r="A15" s="5">
         <v>10011</v>
       </c>
-      <c r="B15" s="4" t="str">
+      <c r="B15" s="5" t="str">
         <v>能力商店</v>
       </c>
       <c r="C15" s="7" t="str">
         <v>购买成功</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="5" t="str">
         <v>Tips_Content_10011</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-    </row>
-    <row customHeight="true" ht="21" r="16">
-      <c r="A16" s="4">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row customHeight="true" ht="23" r="16">
+      <c r="A16" s="5">
         <v>10012</v>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" s="5" t="str">
         <v>能力商店</v>
       </c>
       <c r="C16" s="7" t="str">
         <v>货币不足，再攒攒吧~</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="D16" s="5" t="str">
         <v>Tips_Content_10012</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-    </row>
-    <row customHeight="true" ht="21" r="17">
-      <c r="A17" s="4">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row customHeight="true" ht="23" r="17">
+      <c r="A17" s="5">
         <v>10013</v>
       </c>
       <c r="B17" s="1" t="str">
@@ -1047,7 +1047,7 @@
       <c r="C17" s="1" t="str">
         <v>有玩家进入场景失败，对局将重新开始</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D17" s="5" t="str">
         <v>Tips_Content_10013</v>
       </c>
       <c r="E17" s="1"/>
@@ -1067,7 +1067,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="18">
+    <row customHeight="true" ht="23" r="18">
       <c r="A18" s="1">
         <v>20001</v>
       </c>
@@ -1097,17 +1097,17 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="19">
-      <c r="A19" s="5">
+    <row customHeight="true" ht="23" r="19">
+      <c r="A19" s="2">
         <v>20002</v>
       </c>
-      <c r="B19" s="5" t="str">
+      <c r="B19" s="2" t="str">
         <v>商店</v>
       </c>
-      <c r="C19" s="6" t="str">
+      <c r="C19" s="3" t="str">
         <v>货币不足</v>
       </c>
-      <c r="D19" s="5" t="str">
+      <c r="D19" s="2" t="str">
         <v>Tips_Content_20002</v>
       </c>
       <c r="E19" s="1"/>
@@ -1127,14 +1127,14 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row customHeight="true" ht="23" r="20">
       <c r="A20" s="1">
         <v>20003</v>
       </c>
       <c r="B20" s="1" t="str">
         <v>大厅广告</v>
       </c>
-      <c r="C20" s="2" t="str">
+      <c r="C20" s="4" t="str">
         <v>时间还没到，再等一下才能获得哦~</v>
       </c>
       <c r="D20" s="1" t="str">
@@ -1157,14 +1157,14 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="21">
+    <row customHeight="true" ht="23" r="21">
       <c r="A21" s="1">
         <v>20004</v>
       </c>
       <c r="B21" s="1" t="str">
         <v>大厅广告</v>
       </c>
-      <c r="C21" s="2" t="str">
+      <c r="C21" s="4" t="str">
         <v>今天已经得到很多奖励了，明天再来吧~</v>
       </c>
       <c r="D21" s="1" t="str">
@@ -1187,14 +1187,14 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="22">
+    <row customHeight="true" ht="23" r="22">
       <c r="A22" s="1">
         <v>20005</v>
       </c>
       <c r="B22" s="1" t="str">
         <v>密码表飘字</v>
       </c>
-      <c r="C22" s="2" t="str">
+      <c r="C22" s="4" t="str">
         <v>密码输入正确</v>
       </c>
       <c r="D22" s="1" t="str">
@@ -1217,14 +1217,14 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="23">
+    <row customHeight="true" ht="23" r="23">
       <c r="A23" s="1">
         <v>20006</v>
       </c>
       <c r="B23" s="1" t="str">
         <v>密码表飘字</v>
       </c>
-      <c r="C23" s="2" t="str">
+      <c r="C23" s="4" t="str">
         <v>密码输入错误！</v>
       </c>
       <c r="D23" s="1" t="str">
@@ -1247,14 +1247,14 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="24">
+    <row customHeight="true" ht="23" r="24">
       <c r="A24" s="1">
         <v>20007</v>
       </c>
       <c r="B24" s="1" t="str">
         <v>抽奖主动提示</v>
       </c>
-      <c r="C24" s="2" t="str">
+      <c r="C24" s="4" t="str">
         <v>免费抽取武器皮肤，点击前往！</v>
       </c>
       <c r="D24" s="1" t="str">
@@ -1277,14 +1277,14 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="25">
+    <row customHeight="true" ht="23" r="25">
       <c r="A25" s="1">
         <v>20008</v>
       </c>
       <c r="B25" s="1" t="str">
         <v>抽奖广告冷却</v>
       </c>
-      <c r="C25" s="2" t="str">
+      <c r="C25" s="4" t="str">
         <v>广告冷却中</v>
       </c>
       <c r="D25" s="1" t="str">
@@ -1307,107 +1307,107 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="26">
-      <c r="A26" s="4">
+    <row customHeight="true" ht="23" r="26">
+      <c r="A26" s="5">
         <v>20009</v>
       </c>
-      <c r="B26" s="3" t="str">
+      <c r="B26" s="6" t="str">
         <v>死亡提示</v>
       </c>
-      <c r="C26" s="3" t="str">
+      <c r="C26" s="6" t="str">
         <v>凶手淘汰了你</v>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="D26" s="5" t="str">
         <v>Tips_Content_20009</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-    </row>
-    <row customHeight="true" ht="21" r="27">
-      <c r="A27" s="4">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row customHeight="true" ht="23" r="27">
+      <c r="A27" s="5">
         <v>20010</v>
       </c>
-      <c r="B27" s="3" t="str">
+      <c r="B27" s="6" t="str">
         <v>死亡提示</v>
       </c>
-      <c r="C27" s="3" t="str">
+      <c r="C27" s="6" t="str">
         <v>目标错误，你被淘汰了</v>
       </c>
-      <c r="D27" s="4" t="str">
+      <c r="D27" s="5" t="str">
         <v>Tips_Content_20010</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-    </row>
-    <row customHeight="true" ht="21" r="28">
-      <c r="A28" s="4">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row customHeight="true" ht="23" r="28">
+      <c r="A28" s="5">
         <v>20011</v>
       </c>
-      <c r="B28" s="3" t="str">
+      <c r="B28" s="6" t="str">
         <v>死亡提示</v>
       </c>
-      <c r="C28" s="3" t="str">
+      <c r="C28" s="6" t="str">
         <v>已被正义的警探消灭</v>
       </c>
-      <c r="D28" s="4" t="str">
+      <c r="D28" s="5" t="str">
         <v>Tips_Content_20011</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-    </row>
-    <row customHeight="true" ht="21" r="29">
-      <c r="A29" s="4">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row customHeight="true" ht="23" r="29">
+      <c r="A29" s="5">
         <v>20012</v>
       </c>
       <c r="B29" s="1" t="str">
         <v>兑换</v>
       </c>
-      <c r="C29" s="2" t="str">
+      <c r="C29" s="4" t="str">
         <v>兑换成功</v>
       </c>
-      <c r="D29" s="4" t="str">
+      <c r="D29" s="5" t="str">
         <v>Tips_Content_20012</v>
       </c>
       <c r="E29" s="1"/>
@@ -1427,17 +1427,17 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="30">
-      <c r="A30" s="4">
+    <row customHeight="true" ht="23" r="30">
+      <c r="A30" s="5">
         <v>20013</v>
       </c>
       <c r="B30" s="1" t="str">
         <v>兑换</v>
       </c>
-      <c r="C30" s="2" t="str">
+      <c r="C30" s="4" t="str">
         <v>兑换失败</v>
       </c>
-      <c r="D30" s="4" t="str">
+      <c r="D30" s="5" t="str">
         <v>Tips_Content_20013</v>
       </c>
       <c r="E30" s="1"/>
@@ -1457,17 +1457,17 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="31">
-      <c r="A31" s="4">
+    <row customHeight="true" ht="23" r="31">
+      <c r="A31" s="5">
         <v>20014</v>
       </c>
       <c r="B31" s="1" t="str">
         <v>大会员</v>
       </c>
-      <c r="C31" s="2" t="str">
+      <c r="C31" s="4" t="str">
         <v>恭喜激活会员特权</v>
       </c>
-      <c r="D31" s="4" t="str">
+      <c r="D31" s="5" t="str">
         <v>Tips_Content_20014</v>
       </c>
       <c r="E31" s="1"/>
@@ -1487,17 +1487,17 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="32">
-      <c r="A32" s="4">
+    <row customHeight="true" ht="23" r="32">
+      <c r="A32" s="5">
         <v>20015</v>
       </c>
       <c r="B32" s="1" t="str">
         <v>大会员</v>
       </c>
-      <c r="C32" s="2" t="str">
+      <c r="C32" s="4" t="str">
         <v>恭喜激活超级特权</v>
       </c>
-      <c r="D32" s="4" t="str">
+      <c r="D32" s="5" t="str">
         <v>Tips_Content_20015</v>
       </c>
       <c r="E32" s="1"/>
@@ -1517,17 +1517,17 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="33">
-      <c r="A33" s="4">
+    <row customHeight="true" ht="23" r="33">
+      <c r="A33" s="5">
         <v>20016</v>
       </c>
       <c r="B33" s="1" t="str">
         <v>大会员</v>
       </c>
-      <c r="C33" s="2" t="str">
+      <c r="C33" s="4" t="str">
         <v>会员特权已到期失效</v>
       </c>
-      <c r="D33" s="4" t="str">
+      <c r="D33" s="5" t="str">
         <v>Tips_Content_20016</v>
       </c>
       <c r="E33" s="1"/>
@@ -1547,17 +1547,17 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="34">
-      <c r="A34" s="4">
+    <row customHeight="true" ht="23" r="34">
+      <c r="A34" s="5">
         <v>20017</v>
       </c>
       <c r="B34" s="1" t="str">
         <v>大会员</v>
       </c>
-      <c r="C34" s="2" t="str">
+      <c r="C34" s="4" t="str">
         <v>超级特权已到期失效</v>
       </c>
-      <c r="D34" s="4" t="str">
+      <c r="D34" s="5" t="str">
         <v>Tips_Content_20017</v>
       </c>
       <c r="E34" s="1"/>
@@ -1577,17 +1577,17 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="35">
-      <c r="A35" s="4">
+    <row customHeight="true" ht="23" r="35">
+      <c r="A35" s="5">
         <v>20018</v>
       </c>
       <c r="B35" s="1" t="str">
         <v>购买</v>
       </c>
-      <c r="C35" s="2" t="str">
+      <c r="C35" s="4" t="str">
         <v>持有数量已经达到上限</v>
       </c>
-      <c r="D35" s="4" t="str">
+      <c r="D35" s="5" t="str">
         <v>Tips_Content_20018</v>
       </c>
       <c r="E35" s="1"/>
@@ -1607,17 +1607,17 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="36">
-      <c r="A36" s="4">
+    <row customHeight="true" ht="23" r="36">
+      <c r="A36" s="5">
         <v>20019</v>
       </c>
       <c r="B36" s="1" t="str">
         <v>广告券</v>
       </c>
-      <c r="C36" s="2" t="str">
+      <c r="C36" s="4" t="str">
         <v>恭喜获得广告券*1</v>
       </c>
-      <c r="D36" s="4" t="str">
+      <c r="D36" s="5" t="str">
         <v>Tips_Content_20019</v>
       </c>
       <c r="E36" s="1"/>
@@ -1637,17 +1637,17 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="37">
-      <c r="A37" s="4">
+    <row customHeight="true" ht="23" r="37">
+      <c r="A37" s="5">
         <v>20020</v>
       </c>
       <c r="B37" s="1" t="str">
         <v>大会员</v>
       </c>
-      <c r="C37" s="2" t="str">
+      <c r="C37" s="4" t="str">
         <v>金钥匙数量不足</v>
       </c>
-      <c r="D37" s="4" t="str">
+      <c r="D37" s="5" t="str">
         <v>Tips_Content_20020</v>
       </c>
       <c r="E37" s="1"/>
@@ -1667,17 +1667,17 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="38">
-      <c r="A38" s="4">
+    <row customHeight="true" ht="23" r="38">
+      <c r="A38" s="5">
         <v>20021</v>
       </c>
       <c r="B38" s="1" t="str">
         <v>大会员</v>
       </c>
-      <c r="C38" s="2" t="str">
+      <c r="C38" s="4" t="str">
         <v>这个版本不支持开通大会员</v>
       </c>
-      <c r="D38" s="4" t="str">
+      <c r="D38" s="5" t="str">
         <v>Tips_Content_20021</v>
       </c>
       <c r="E38" s="1"/>
@@ -1697,10 +1697,10 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="39">
+    <row customHeight="true" ht="23" r="39">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="2" t="str"/>
+      <c r="C39" s="4" t="str"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1719,10 +1719,10 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="40">
+    <row customHeight="true" ht="23" r="40">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="2" t="str"/>
+      <c r="C40" s="4" t="str"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1741,10 +1741,10 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="41">
+    <row customHeight="true" ht="23" r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="2" t="str"/>
+      <c r="C41" s="4" t="str"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1763,10 +1763,10 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="42">
+    <row customHeight="true" ht="23" r="42">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="2" t="str"/>
+      <c r="C42" s="4" t="str"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1785,10 +1785,10 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="43">
+    <row customHeight="true" ht="23" r="43">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="2" t="str"/>
+      <c r="C43" s="4" t="str"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1807,10 +1807,10 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="44">
+    <row customHeight="true" ht="23" r="44">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="2" t="str"/>
+      <c r="C44" s="4" t="str"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1829,10 +1829,10 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="45">
+    <row customHeight="true" ht="23" r="45">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="2" t="str"/>
+      <c r="C45" s="4" t="str"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1851,10 +1851,10 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="46">
+    <row customHeight="true" ht="23" r="46">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="2" t="str"/>
+      <c r="C46" s="4" t="str"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1873,10 +1873,10 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="47">
+    <row customHeight="true" ht="23" r="47">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="2" t="str"/>
+      <c r="C47" s="4" t="str"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1895,10 +1895,10 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="48">
+    <row customHeight="true" ht="23" r="48">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="2" t="str"/>
+      <c r="C48" s="4" t="str"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1917,10 +1917,10 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="49">
+    <row customHeight="true" ht="23" r="49">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="2" t="str"/>
+      <c r="C49" s="4" t="str"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1939,10 +1939,10 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="50">
+    <row customHeight="true" ht="23" r="50">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="2" t="str"/>
+      <c r="C50" s="4" t="str"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1961,10 +1961,10 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="51">
+    <row customHeight="true" ht="23" r="51">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="2" t="str"/>
+      <c r="C51" s="4" t="str"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1983,10 +1983,10 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="52">
+    <row customHeight="true" ht="23" r="52">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="2" t="str"/>
+      <c r="C52" s="4" t="str"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2005,10 +2005,10 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="53">
+    <row customHeight="true" ht="23" r="53">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="2" t="str"/>
+      <c r="C53" s="4" t="str"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2027,10 +2027,10 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="54">
+    <row customHeight="true" ht="23" r="54">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="2" t="str"/>
+      <c r="C54" s="4" t="str"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2049,10 +2049,10 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="55">
+    <row customHeight="true" ht="23" r="55">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="2" t="str"/>
+      <c r="C55" s="4" t="str"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2071,10 +2071,10 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="56">
+    <row customHeight="true" ht="23" r="56">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="2" t="str"/>
+      <c r="C56" s="4" t="str"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2093,10 +2093,10 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="57">
+    <row customHeight="true" ht="23" r="57">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="2" t="str"/>
+      <c r="C57" s="4" t="str"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2115,10 +2115,10 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="58">
+    <row customHeight="true" ht="23" r="58">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="2" t="str"/>
+      <c r="C58" s="4" t="str"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2137,10 +2137,10 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="59">
+    <row customHeight="true" ht="23" r="59">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="2" t="str"/>
+      <c r="C59" s="4" t="str"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2159,10 +2159,10 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="60">
+    <row customHeight="true" ht="23" r="60">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="2" t="str"/>
+      <c r="C60" s="4" t="str"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2181,10 +2181,10 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="61">
+    <row customHeight="true" ht="23" r="61">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="2" t="str"/>
+      <c r="C61" s="4" t="str"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2203,10 +2203,10 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="62">
+    <row customHeight="true" ht="23" r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="2" t="str"/>
+      <c r="C62" s="4" t="str"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2225,10 +2225,10 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="63">
+    <row customHeight="true" ht="23" r="63">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="2" t="str"/>
+      <c r="C63" s="4" t="str"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2247,10 +2247,10 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="64">
+    <row customHeight="true" ht="23" r="64">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="2" t="str"/>
+      <c r="C64" s="4" t="str"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2269,10 +2269,10 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="65">
+    <row customHeight="true" ht="23" r="65">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="2" t="str"/>
+      <c r="C65" s="4" t="str"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2291,10 +2291,10 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="66">
+    <row customHeight="true" ht="23" r="66">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="2" t="str"/>
+      <c r="C66" s="4" t="str"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2313,10 +2313,10 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="67">
+    <row customHeight="true" ht="23" r="67">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="2" t="str"/>
+      <c r="C67" s="4" t="str"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2335,10 +2335,10 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="68">
+    <row customHeight="true" ht="23" r="68">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="2" t="str"/>
+      <c r="C68" s="4" t="str"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -2357,10 +2357,10 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="69">
+    <row customHeight="true" ht="23" r="69">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="2" t="str"/>
+      <c r="C69" s="4" t="str"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -2379,10 +2379,10 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="70">
+    <row customHeight="true" ht="23" r="70">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="2" t="str"/>
+      <c r="C70" s="4" t="str"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -2401,10 +2401,10 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="71">
+    <row customHeight="true" ht="23" r="71">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="2" t="str"/>
+      <c r="C71" s="4" t="str"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -2423,10 +2423,10 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="72">
+    <row customHeight="true" ht="23" r="72">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="2" t="str"/>
+      <c r="C72" s="4" t="str"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -2445,10 +2445,10 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="73">
+    <row customHeight="true" ht="23" r="73">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="2" t="str"/>
+      <c r="C73" s="4" t="str"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -2467,10 +2467,10 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="74">
+    <row customHeight="true" ht="23" r="74">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="2" t="str"/>
+      <c r="C74" s="4" t="str"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -2489,10 +2489,10 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="75">
+    <row customHeight="true" ht="23" r="75">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="2" t="str"/>
+      <c r="C75" s="4" t="str"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -2511,10 +2511,10 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="76">
+    <row customHeight="true" ht="23" r="76">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="2" t="str"/>
+      <c r="C76" s="4" t="str"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -2533,10 +2533,10 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="77">
+    <row customHeight="true" ht="23" r="77">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="2" t="str"/>
+      <c r="C77" s="4" t="str"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2555,10 +2555,10 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="78">
+    <row customHeight="true" ht="23" r="78">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="2" t="str"/>
+      <c r="C78" s="4" t="str"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2577,10 +2577,10 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="79">
+    <row customHeight="true" ht="23" r="79">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="2" t="str"/>
+      <c r="C79" s="4" t="str"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -2599,10 +2599,10 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="80">
+    <row customHeight="true" ht="23" r="80">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="2" t="str"/>
+      <c r="C80" s="4" t="str"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -2621,10 +2621,10 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="81">
+    <row customHeight="true" ht="23" r="81">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="2" t="str"/>
+      <c r="C81" s="4" t="str"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2643,10 +2643,10 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="82">
+    <row customHeight="true" ht="23" r="82">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="2" t="str"/>
+      <c r="C82" s="4" t="str"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2665,10 +2665,10 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="83">
+    <row customHeight="true" ht="23" r="83">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="2" t="str"/>
+      <c r="C83" s="4" t="str"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -2687,10 +2687,10 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="84">
+    <row customHeight="true" ht="23" r="84">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="2" t="str"/>
+      <c r="C84" s="4" t="str"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -2709,10 +2709,10 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="85">
+    <row customHeight="true" ht="23" r="85">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="2" t="str"/>
+      <c r="C85" s="4" t="str"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -2731,10 +2731,10 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="86">
+    <row customHeight="true" ht="23" r="86">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="2" t="str"/>
+      <c r="C86" s="4" t="str"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -2753,10 +2753,10 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="87">
+    <row customHeight="true" ht="23" r="87">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="2" t="str"/>
+      <c r="C87" s="4" t="str"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2775,10 +2775,10 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="88">
+    <row customHeight="true" ht="23" r="88">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="2" t="str"/>
+      <c r="C88" s="4" t="str"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -2797,10 +2797,10 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="89">
+    <row customHeight="true" ht="23" r="89">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="2" t="str"/>
+      <c r="C89" s="4" t="str"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -2819,10 +2819,10 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="90">
+    <row customHeight="true" ht="23" r="90">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="2" t="str"/>
+      <c r="C90" s="4" t="str"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2841,10 +2841,10 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="91">
+    <row customHeight="true" ht="23" r="91">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="2" t="str"/>
+      <c r="C91" s="4" t="str"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2863,10 +2863,10 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="92">
+    <row customHeight="true" ht="23" r="92">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="2" t="str"/>
+      <c r="C92" s="4" t="str"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2885,10 +2885,10 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="93">
+    <row customHeight="true" ht="23" r="93">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="2" t="str"/>
+      <c r="C93" s="4" t="str"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -2907,10 +2907,10 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="94">
+    <row customHeight="true" ht="23" r="94">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="2" t="str"/>
+      <c r="C94" s="4" t="str"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2929,10 +2929,10 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="95">
+    <row customHeight="true" ht="23" r="95">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="2" t="str"/>
+      <c r="C95" s="4" t="str"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -2951,10 +2951,10 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="96">
+    <row customHeight="true" ht="23" r="96">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="2" t="str"/>
+      <c r="C96" s="4" t="str"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -2973,10 +2973,10 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="97">
+    <row customHeight="true" ht="23" r="97">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="2" t="str"/>
+      <c r="C97" s="4" t="str"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -2995,10 +2995,10 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="98">
+    <row customHeight="true" ht="23" r="98">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="2" t="str"/>
+      <c r="C98" s="4" t="str"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -3017,10 +3017,10 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="99">
+    <row customHeight="true" ht="23" r="99">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="2" t="str"/>
+      <c r="C99" s="4" t="str"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -3039,10 +3039,10 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="100">
+    <row customHeight="true" ht="23" r="100">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
-      <c r="C100" s="2" t="str"/>
+      <c r="C100" s="4" t="str"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -3061,10 +3061,10 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="101">
+    <row customHeight="true" ht="23" r="101">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="2" t="str"/>
+      <c r="C101" s="4" t="str"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -3083,10 +3083,10 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="102">
+    <row customHeight="true" ht="23" r="102">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="2" t="str"/>
+      <c r="C102" s="4" t="str"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -3105,10 +3105,10 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="103">
+    <row customHeight="true" ht="23" r="103">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="2" t="str"/>
+      <c r="C103" s="4" t="str"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -3127,10 +3127,10 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="104">
+    <row customHeight="true" ht="23" r="104">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="2" t="str"/>
+      <c r="C104" s="4" t="str"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -3149,10 +3149,10 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="105">
+    <row customHeight="true" ht="23" r="105">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="2" t="str"/>
+      <c r="C105" s="4" t="str"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -3171,10 +3171,10 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="106">
+    <row customHeight="true" ht="23" r="106">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="2" t="str"/>
+      <c r="C106" s="4" t="str"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -3193,10 +3193,10 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="107">
+    <row customHeight="true" ht="23" r="107">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="2" t="str"/>
+      <c r="C107" s="4" t="str"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -3215,10 +3215,10 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="108">
+    <row customHeight="true" ht="23" r="108">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
-      <c r="C108" s="2" t="str"/>
+      <c r="C108" s="4" t="str"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -3237,10 +3237,10 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="109">
+    <row customHeight="true" ht="23" r="109">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="2" t="str"/>
+      <c r="C109" s="4" t="str"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -3259,10 +3259,10 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="110">
+    <row customHeight="true" ht="23" r="110">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="2" t="str"/>
+      <c r="C110" s="4" t="str"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -3281,10 +3281,10 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="111">
+    <row customHeight="true" ht="23" r="111">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
-      <c r="C111" s="2" t="str"/>
+      <c r="C111" s="4" t="str"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -3303,10 +3303,10 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="112">
+    <row customHeight="true" ht="23" r="112">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
-      <c r="C112" s="2" t="str"/>
+      <c r="C112" s="4" t="str"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -3325,10 +3325,10 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="113">
+    <row customHeight="true" ht="23" r="113">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
-      <c r="C113" s="2" t="str"/>
+      <c r="C113" s="4" t="str"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -3347,10 +3347,10 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="114">
+    <row customHeight="true" ht="23" r="114">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
-      <c r="C114" s="2" t="str"/>
+      <c r="C114" s="4" t="str"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -3369,10 +3369,10 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="115">
+    <row customHeight="true" ht="23" r="115">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
-      <c r="C115" s="2" t="str"/>
+      <c r="C115" s="4" t="str"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -3391,10 +3391,10 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="116">
+    <row customHeight="true" ht="23" r="116">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
-      <c r="C116" s="2" t="str"/>
+      <c r="C116" s="4" t="str"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -3413,10 +3413,10 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="117">
+    <row customHeight="true" ht="23" r="117">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
-      <c r="C117" s="2" t="str"/>
+      <c r="C117" s="4" t="str"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -3435,10 +3435,10 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="118">
+    <row customHeight="true" ht="23" r="118">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
-      <c r="C118" s="2" t="str"/>
+      <c r="C118" s="4" t="str"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -3457,10 +3457,10 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="119">
+    <row customHeight="true" ht="23" r="119">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
-      <c r="C119" s="2" t="str"/>
+      <c r="C119" s="4" t="str"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -3479,10 +3479,10 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="120">
+    <row customHeight="true" ht="23" r="120">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-      <c r="C120" s="2" t="str"/>
+      <c r="C120" s="4" t="str"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -3501,10 +3501,10 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="121">
+    <row customHeight="true" ht="23" r="121">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-      <c r="C121" s="2" t="str"/>
+      <c r="C121" s="4" t="str"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -3523,10 +3523,10 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="122">
+    <row customHeight="true" ht="23" r="122">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="2" t="str"/>
+      <c r="C122" s="4" t="str"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -3545,10 +3545,10 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="123">
+    <row customHeight="true" ht="23" r="123">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
-      <c r="C123" s="2" t="str"/>
+      <c r="C123" s="4" t="str"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -3567,10 +3567,10 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="124">
+    <row customHeight="true" ht="23" r="124">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
-      <c r="C124" s="2" t="str"/>
+      <c r="C124" s="4" t="str"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -3589,10 +3589,10 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="125">
+    <row customHeight="true" ht="23" r="125">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
-      <c r="C125" s="2" t="str"/>
+      <c r="C125" s="4" t="str"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -3611,10 +3611,10 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="126">
+    <row customHeight="true" ht="23" r="126">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
-      <c r="C126" s="2" t="str"/>
+      <c r="C126" s="4" t="str"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -3633,10 +3633,10 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="127">
+    <row customHeight="true" ht="23" r="127">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
-      <c r="C127" s="2" t="str"/>
+      <c r="C127" s="4" t="str"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -3655,10 +3655,10 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="128">
+    <row customHeight="true" ht="23" r="128">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
-      <c r="C128" s="2" t="str"/>
+      <c r="C128" s="4" t="str"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -3677,10 +3677,10 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="129">
+    <row customHeight="true" ht="23" r="129">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
-      <c r="C129" s="2" t="str"/>
+      <c r="C129" s="4" t="str"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -3699,10 +3699,10 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="130">
+    <row customHeight="true" ht="23" r="130">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
-      <c r="C130" s="2" t="str"/>
+      <c r="C130" s="4" t="str"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -3721,10 +3721,10 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="131">
+    <row customHeight="true" ht="23" r="131">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
-      <c r="C131" s="2" t="str"/>
+      <c r="C131" s="4" t="str"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -3743,10 +3743,10 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="132">
+    <row customHeight="true" ht="23" r="132">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
-      <c r="C132" s="2" t="str"/>
+      <c r="C132" s="4" t="str"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -3765,10 +3765,10 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="133">
+    <row customHeight="true" ht="23" r="133">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
-      <c r="C133" s="2" t="str"/>
+      <c r="C133" s="4" t="str"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -3787,10 +3787,10 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="134">
+    <row customHeight="true" ht="23" r="134">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
-      <c r="C134" s="2" t="str"/>
+      <c r="C134" s="4" t="str"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -3809,10 +3809,10 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="135">
+    <row customHeight="true" ht="23" r="135">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
-      <c r="C135" s="2" t="str"/>
+      <c r="C135" s="4" t="str"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -3831,10 +3831,10 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="136">
+    <row customHeight="true" ht="23" r="136">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
-      <c r="C136" s="2" t="str"/>
+      <c r="C136" s="4" t="str"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -3853,10 +3853,10 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="137">
+    <row customHeight="true" ht="23" r="137">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
-      <c r="C137" s="2" t="str"/>
+      <c r="C137" s="4" t="str"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -3875,10 +3875,10 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="138">
+    <row customHeight="true" ht="23" r="138">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
-      <c r="C138" s="2" t="str"/>
+      <c r="C138" s="4" t="str"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -3897,10 +3897,10 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="139">
+    <row customHeight="true" ht="23" r="139">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
-      <c r="C139" s="2" t="str"/>
+      <c r="C139" s="4" t="str"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -3919,10 +3919,10 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="140">
+    <row customHeight="true" ht="23" r="140">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
-      <c r="C140" s="2" t="str"/>
+      <c r="C140" s="4" t="str"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -3941,10 +3941,10 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="141">
+    <row customHeight="true" ht="23" r="141">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
-      <c r="C141" s="2" t="str"/>
+      <c r="C141" s="4" t="str"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -3963,10 +3963,10 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="142">
+    <row customHeight="true" ht="23" r="142">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
-      <c r="C142" s="2" t="str"/>
+      <c r="C142" s="4" t="str"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -3985,10 +3985,10 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="143">
+    <row customHeight="true" ht="23" r="143">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
-      <c r="C143" s="2" t="str"/>
+      <c r="C143" s="4" t="str"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -4007,10 +4007,10 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="144">
+    <row customHeight="true" ht="23" r="144">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
-      <c r="C144" s="2" t="str"/>
+      <c r="C144" s="4" t="str"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -4029,10 +4029,10 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="145">
+    <row customHeight="true" ht="23" r="145">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
-      <c r="C145" s="2" t="str"/>
+      <c r="C145" s="4" t="str"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -4051,10 +4051,10 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="146">
+    <row customHeight="true" ht="23" r="146">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
-      <c r="C146" s="2" t="str"/>
+      <c r="C146" s="4" t="str"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -4073,10 +4073,10 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="147">
+    <row customHeight="true" ht="23" r="147">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
-      <c r="C147" s="2" t="str"/>
+      <c r="C147" s="4" t="str"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -4095,10 +4095,10 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="148">
+    <row customHeight="true" ht="23" r="148">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
-      <c r="C148" s="2" t="str"/>
+      <c r="C148" s="4" t="str"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -4117,10 +4117,10 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="149">
+    <row customHeight="true" ht="23" r="149">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
-      <c r="C149" s="2" t="str"/>
+      <c r="C149" s="4" t="str"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -4139,10 +4139,10 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="150">
+    <row customHeight="true" ht="23" r="150">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
-      <c r="C150" s="2" t="str"/>
+      <c r="C150" s="4" t="str"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -4161,10 +4161,10 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="151">
+    <row customHeight="true" ht="23" r="151">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
-      <c r="C151" s="2" t="str"/>
+      <c r="C151" s="4" t="str"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -4183,10 +4183,10 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="152">
+    <row customHeight="true" ht="23" r="152">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
-      <c r="C152" s="2" t="str"/>
+      <c r="C152" s="4" t="str"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -4205,10 +4205,10 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="153">
+    <row customHeight="true" ht="23" r="153">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
-      <c r="C153" s="2" t="str"/>
+      <c r="C153" s="4" t="str"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -4227,10 +4227,10 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="154">
+    <row customHeight="true" ht="23" r="154">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
-      <c r="C154" s="2" t="str"/>
+      <c r="C154" s="4" t="str"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -4249,10 +4249,10 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="155">
+    <row customHeight="true" ht="23" r="155">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
-      <c r="C155" s="2" t="str"/>
+      <c r="C155" s="4" t="str"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -4271,10 +4271,10 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="156">
+    <row customHeight="true" ht="23" r="156">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
-      <c r="C156" s="2" t="str"/>
+      <c r="C156" s="4" t="str"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -4293,10 +4293,10 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="157">
+    <row customHeight="true" ht="23" r="157">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
-      <c r="C157" s="2" t="str"/>
+      <c r="C157" s="4" t="str"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -4315,10 +4315,10 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="158">
+    <row customHeight="true" ht="23" r="158">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
-      <c r="C158" s="2" t="str"/>
+      <c r="C158" s="4" t="str"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -4337,10 +4337,10 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="159">
+    <row customHeight="true" ht="23" r="159">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
-      <c r="C159" s="2" t="str"/>
+      <c r="C159" s="4" t="str"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -4359,10 +4359,10 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="160">
+    <row customHeight="true" ht="23" r="160">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
-      <c r="C160" s="2" t="str"/>
+      <c r="C160" s="4" t="str"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -4381,10 +4381,10 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="161">
+    <row customHeight="true" ht="23" r="161">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
-      <c r="C161" s="2" t="str"/>
+      <c r="C161" s="4" t="str"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -4403,10 +4403,10 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="162">
+    <row customHeight="true" ht="23" r="162">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
-      <c r="C162" s="2" t="str"/>
+      <c r="C162" s="4" t="str"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -4425,10 +4425,10 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="163">
+    <row customHeight="true" ht="23" r="163">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
-      <c r="C163" s="2" t="str"/>
+      <c r="C163" s="4" t="str"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -4447,10 +4447,10 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="164">
+    <row customHeight="true" ht="23" r="164">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
-      <c r="C164" s="2" t="str"/>
+      <c r="C164" s="4" t="str"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -4469,10 +4469,10 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="165">
+    <row customHeight="true" ht="23" r="165">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
-      <c r="C165" s="2" t="str"/>
+      <c r="C165" s="4" t="str"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -4491,10 +4491,10 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="166">
+    <row customHeight="true" ht="23" r="166">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
-      <c r="C166" s="2" t="str"/>
+      <c r="C166" s="4" t="str"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -4513,10 +4513,10 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="167">
+    <row customHeight="true" ht="23" r="167">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
-      <c r="C167" s="2" t="str"/>
+      <c r="C167" s="4" t="str"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -4535,10 +4535,10 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="168">
+    <row customHeight="true" ht="23" r="168">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
-      <c r="C168" s="2" t="str"/>
+      <c r="C168" s="4" t="str"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -4557,10 +4557,10 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="169">
+    <row customHeight="true" ht="23" r="169">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
-      <c r="C169" s="2" t="str"/>
+      <c r="C169" s="4" t="str"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -4579,10 +4579,10 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="170">
+    <row customHeight="true" ht="23" r="170">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
-      <c r="C170" s="2" t="str"/>
+      <c r="C170" s="4" t="str"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -4601,10 +4601,10 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="171">
+    <row customHeight="true" ht="23" r="171">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
-      <c r="C171" s="2" t="str"/>
+      <c r="C171" s="4" t="str"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -4623,10 +4623,10 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="172">
+    <row customHeight="true" ht="23" r="172">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
-      <c r="C172" s="2" t="str"/>
+      <c r="C172" s="4" t="str"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -4645,10 +4645,10 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="173">
+    <row customHeight="true" ht="23" r="173">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
-      <c r="C173" s="2" t="str"/>
+      <c r="C173" s="4" t="str"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -4667,10 +4667,10 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="174">
+    <row customHeight="true" ht="23" r="174">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
-      <c r="C174" s="2" t="str"/>
+      <c r="C174" s="4" t="str"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -4689,10 +4689,10 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="175">
+    <row customHeight="true" ht="23" r="175">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
-      <c r="C175" s="2" t="str"/>
+      <c r="C175" s="4" t="str"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -4711,10 +4711,10 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="176">
+    <row customHeight="true" ht="23" r="176">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
-      <c r="C176" s="2" t="str"/>
+      <c r="C176" s="4" t="str"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -4733,10 +4733,10 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="177">
+    <row customHeight="true" ht="23" r="177">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
-      <c r="C177" s="2" t="str"/>
+      <c r="C177" s="4" t="str"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -4755,10 +4755,10 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="178">
+    <row customHeight="true" ht="23" r="178">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
-      <c r="C178" s="2" t="str"/>
+      <c r="C178" s="4" t="str"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -4777,10 +4777,10 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="179">
+    <row customHeight="true" ht="23" r="179">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
-      <c r="C179" s="2" t="str"/>
+      <c r="C179" s="4" t="str"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -4799,10 +4799,10 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="180">
+    <row customHeight="true" ht="23" r="180">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
-      <c r="C180" s="2" t="str"/>
+      <c r="C180" s="4" t="str"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -4821,10 +4821,10 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="181">
+    <row customHeight="true" ht="23" r="181">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
-      <c r="C181" s="2" t="str"/>
+      <c r="C181" s="4" t="str"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -4843,10 +4843,10 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="182">
+    <row customHeight="true" ht="23" r="182">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
-      <c r="C182" s="2" t="str"/>
+      <c r="C182" s="4" t="str"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -4865,10 +4865,10 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="183">
+    <row customHeight="true" ht="23" r="183">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
-      <c r="C183" s="2" t="str"/>
+      <c r="C183" s="4" t="str"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -4887,10 +4887,10 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="184">
+    <row customHeight="true" ht="23" r="184">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
-      <c r="C184" s="2" t="str"/>
+      <c r="C184" s="4" t="str"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -4909,10 +4909,10 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="185">
+    <row customHeight="true" ht="23" r="185">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
-      <c r="C185" s="2" t="str"/>
+      <c r="C185" s="4" t="str"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -4931,10 +4931,10 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="186">
+    <row customHeight="true" ht="23" r="186">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
-      <c r="C186" s="2" t="str"/>
+      <c r="C186" s="4" t="str"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -4953,10 +4953,10 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="187">
+    <row customHeight="true" ht="23" r="187">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
-      <c r="C187" s="2" t="str"/>
+      <c r="C187" s="4" t="str"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -4975,10 +4975,10 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="188">
+    <row customHeight="true" ht="23" r="188">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
-      <c r="C188" s="2" t="str"/>
+      <c r="C188" s="4" t="str"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -4997,10 +4997,10 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="189">
+    <row customHeight="true" ht="23" r="189">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
-      <c r="C189" s="2" t="str"/>
+      <c r="C189" s="4" t="str"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -5019,10 +5019,10 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="190">
+    <row customHeight="true" ht="23" r="190">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
-      <c r="C190" s="2" t="str"/>
+      <c r="C190" s="4" t="str"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -5041,10 +5041,10 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="191">
+    <row customHeight="true" ht="23" r="191">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
-      <c r="C191" s="2" t="str"/>
+      <c r="C191" s="4" t="str"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
@@ -5063,10 +5063,10 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="192">
+    <row customHeight="true" ht="23" r="192">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
-      <c r="C192" s="2" t="str"/>
+      <c r="C192" s="4" t="str"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
@@ -5085,10 +5085,10 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="193">
+    <row customHeight="true" ht="23" r="193">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
-      <c r="C193" s="2" t="str"/>
+      <c r="C193" s="4" t="str"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
@@ -5107,10 +5107,10 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="194">
+    <row customHeight="true" ht="23" r="194">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
-      <c r="C194" s="2" t="str"/>
+      <c r="C194" s="4" t="str"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
@@ -5129,10 +5129,10 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="195">
+    <row customHeight="true" ht="23" r="195">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
-      <c r="C195" s="2" t="str"/>
+      <c r="C195" s="4" t="str"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
@@ -5151,10 +5151,10 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="196">
+    <row customHeight="true" ht="23" r="196">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
-      <c r="C196" s="2" t="str"/>
+      <c r="C196" s="4" t="str"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
@@ -5173,10 +5173,10 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="197">
+    <row customHeight="true" ht="23" r="197">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
-      <c r="C197" s="2" t="str"/>
+      <c r="C197" s="4" t="str"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
@@ -5195,10 +5195,10 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="198">
+    <row customHeight="true" ht="23" r="198">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
-      <c r="C198" s="2" t="str"/>
+      <c r="C198" s="4" t="str"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
@@ -5217,10 +5217,10 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="199">
+    <row customHeight="true" ht="23" r="199">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
-      <c r="C199" s="2" t="str"/>
+      <c r="C199" s="4" t="str"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
@@ -5239,10 +5239,10 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="200">
+    <row customHeight="true" ht="23" r="200">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
-      <c r="C200" s="2" t="str"/>
+      <c r="C200" s="4" t="str"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
@@ -5261,10 +5261,10 @@
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="201">
+    <row customHeight="true" ht="23" r="201">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
-      <c r="C201" s="2" t="str"/>
+      <c r="C201" s="4" t="str"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -5283,10 +5283,10 @@
       <c r="S201" s="1"/>
       <c r="T201" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="202">
+    <row customHeight="true" ht="23" r="202">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
-      <c r="C202" s="2" t="str"/>
+      <c r="C202" s="4" t="str"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -5305,10 +5305,10 @@
       <c r="S202" s="1"/>
       <c r="T202" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="203">
+    <row customHeight="true" ht="23" r="203">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
-      <c r="C203" s="2" t="str"/>
+      <c r="C203" s="4" t="str"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
